--- a/DOM_Banner/output/dept0713/Elizabeth Connick_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Elizabeth Connick_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02139; Ragon Institute of Massachusetts General Hospital, Massachusetts Institute of Technology, and Harvard, Cambridge, MA 02139; Department of Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02139; Department of Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02139; School of Medicine, Case Western Reserve University, Cleveland, OH 44106; Department of Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02139; Department of Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02139; Harvard T. H. Chan School of Public Health, Boston, MA 02115; Harvard T. H. Chan School of Public Health, Boston, MA 02115; School of Medicine, University of Alabama at Birmingham, Birmingham, AL 35233; Basic Science Program, Frederick National Laboratory for Cancer Research, National Cancer Institute, Frederick, MD 21702; Laboratory of Integrative Cancer Immunology, Center for Cancer Research, National Cancer Institute, Bethesda, MD 20814; Basic Science Program, Frederick National Laboratory for Cancer Research, National Cancer Institute, Frederick, MD 21702; Laboratory of Integrative Cancer Immunology, Center for Cancer Research, National Cancer Institute, Bethesda, MD 20814; Basic Science Program, Frederick National Laboratory for Cancer Research, National Cancer Institute, Frederick, MD 21702; Laboratory of Integrative Cancer Immunology, Center for Cancer Research, National Cancer Institute, Bethesda, MD 20814; Ragon Institute of Massachusetts General Hospital, Massachusetts Institute of Technology, and Harvard, Cambridge, MA 02139; Department of Medicine, Massachusetts General Hospital, Harvard Medical School, Boston, MA 02114; School of Medicine, Case Western Reserve University, Cleveland, OH 44106; School of Medicine, University of California San Francisco, San Francisco, CA 94143; Department of Medicine, University of Arizona, Tucson, AZ 85724; School of Medicine, University of California Los Angeles, Los Angeles, CA 90095; School of Medicine, University of Pennsylvania, Philadelphia, PA 19104; School of Medicine, University of Alabama at Birmingham, Birmingham, AL 35233; Department of Medicine, University of North Carolina at Chapel Hill, Chapel Hill, NC 27599; Department of Medicine, University of Massachusetts Chan Medical School - Baystate, Springfield, MA 01199; Department of Medicine, University of North Carolina at Chapel Hill, Chapel Hill, NC 27599; School of Medicine, University of California San Francisco, San Francisco, CA 94143; Department of Medicine, University of California San Diego, San Diego, CA 92103; School of Medicine, Case Western Reserve University, Cleveland, OH 44106; Ragon Institute of Massachusetts General Hospital, Massachusetts Institute of Technology, and Harvard, Cambridge, MA 02139; Department of Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323306381</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>HIV post-treatment controllers have distinct immunological and virological features</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Proceedings of the National Academy of Sciences of the United States of America</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>National Academy of Sciences</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1073/pnas.2218960120</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36877848</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1073/pnas.2218960120</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Medicine, San Francisco Veterans Affairs Medical Center, San Francisco, California, USA; Department of Medicine, University of California, San Francisco, California, USA; Department of Medicine, San Francisco Veterans Affairs Medical Center, San Francisco, California, USA; Department of Medicine, University of California, San Francisco, California, USA; Department of Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Medicine, San Francisco Veterans Affairs Medical Center, San Francisco, California, USA; Department of Medicine, University of California, San Francisco, California, USA; Department of Medicine, San Francisco Veterans Affairs Medical Center, San Francisco, California, USA; Department of Medicine, University of California, San Francisco, California, USA; Department of Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Department of Medicine, Case Western Reserve University, Cleveland, Ohio, USA; UNC HIV Cure Center, University of North Carolina at Chapel Hill, Chapel Hill, North Carolina, USA; Department of Medicine, University of Massachusetts Medical School-Baystate, Springfield, Massachusetts, USA; Department of Medicine, San Francisco Veterans Affairs Medical Center, San Francisco, California, USA; Department of Medicine, University of California, San Francisco, California, USA; Department of Medicine, University of California, San Francisco, California, USA; Department of Medicine, University of California, San Francisco, California, USA; Department of Medicine, San Francisco Veterans Affairs Medical Center, San Francisco, California, USA; Department of Medicine, University of California, San Francisco, California, USA; Department of Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, Massachusetts, USA; Department of Medicine, San Francisco Veterans Affairs Medical Center, San Francisco, California, USA; Department of Medicine, University of California, San Francisco, California, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312196558</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Transcriptomic Signatures of Human Immunodeficiency Virus Post-Treatment Control</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Virology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Society for Microbiology</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1128/jvi.01254-22</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36541802</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1128/jvi.01254-22</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02115, USA.; Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02115, USA.; Beth Israel Deaconess Medical Center, Boston, MA 02215, USA.; Beth Israel Deaconess Medical Center, Boston, MA 02215, USA.; Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02115, USA.; University of Pittsburgh, Pittsburgh, PA 15213, USA.; Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02115, USA.; Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02115, USA.; Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02115, USA.; University of Arizona, Tucson, AZ 85724, USA.; University of California, San Francisco, San Francisco, CA 94158, USA.; Boston University Chobanian and Avedesian School of Medicine, Boston, MA 02118, USA.; Beth Israel Deaconess Medical Center, Boston, MA 02215, USA.; Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02115, USA.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376111076</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Autologous neutralizing antibodies increase with early antiretroviral therapy and shape HIV rebound after treatment interruption</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Science Translational Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>American Association for the Advancement of Science</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1126/scitranslmed.abq4490</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37163616</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1126/scitranslmed.abq4490</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> University of California Irvine;;  University of Arizona;;  University of California, Irvine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323923752</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Human immunodeficiency virus (HIV) dynamics in secondary lymphoid tissues and the evolution of cytotoxic T lymphocyte (CTL) escape mutants</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.03.10.532137</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.03.10.532137</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Center for Virology and Vaccine Research, Beth Israel Deaconess Medical Center, Boston, MA; Ragon Institute of MGH, MIT and Harvard , Cambridge, MA; Ragon Institute of MGH, MIT and Harvard, Cambridge, MA; Division of Infectious Diseases, Department of Medicine, University of Nebraska Medical Center , Omaha, NE; Department of Epidemiology, University of North Carolina at Chapel Hill , Chapel Hill, NC; Seattle, WA; Vaccine and Infectious Disease Division, Fred Hutchinson Cancer Center ; Seattle, WA; Seattle, WA; Vaccine and Infectious Disease Division, Fred Hutchinson Cancer Center ; Seattle, WA; Seattle, WA; Vaccine and Infectious Disease Division, Fred Hutchinson Cancer Center ; Seattle, WA; Division of AIDS, National Institute of Allergy and Infectious Diseases, National Institutes of Health , Rockville, MD; Seattle, WA; Vaccine and Infectious Disease Division, Fred Hutchinson Cancer Center ; Seattle, WA; Seattle, WA; Vaccine and Infectious Disease Division, Fred Hutchinson Cancer Center ; Seattle, WA; Seattle, WA; Vaccine and Infectious Disease Division, Fred Hutchinson Cancer Center ; Seattle, WA; Seattle, WA; Vaccine and Infectious Disease Division, Fred Hutchinson Cancer Center ; Seattle, WA; Department of Epidemiology and Biostatistics, School of Public Health, Texas A&amp;M University , College Station, TX; Department of Integrative Physiology, University of Colorado , Boulder, CO; Department of Microbiology, University of Illinois , Urbana, IL; Department of Medicine, University of Arizona , Tucson, AZ; Division of Infectious Diseases and International Health, University of Virginia , Charlottesville, VA; Department of Medicine, University of Washington , Seattle, WA; Children’s Hospital and Medical Center, University of Nebraska Medical Center , Omaha, NE; Department of Epidemiology, University of North Carolina at Chapel Hill , Chapel Hill, NC; Department of Family Medicine, University of North Carolina at Chapel Hill , Chapel Hill, NC; Department of Family Medicine, University of North Carolina at Chapel Hill , Chapel Hill, NC; Department of Public Health Sciences, Clemson University , Clemson, SC; Department of Medicine, University of Florida , Gainesville, FL; Department of Medicine, Northwestern University Feinberg School of Medicine , Chicago, IL; Center for Sexual Health Promotion, Indiana University School of Public Health–Bloomington , Bloomington, Indiana , USA; Department of Medicine, University of Kentucky , Lexington, KY; Department of Medicine, Charles R Drew University of Medicine and Science , Los Angeles, CA; Department of Microbiology, Biochemistry and Immunology, Morehouse School of Medicine , Atlanta, GA; Department of Laboratory Medicine, University of Washington ; Seattle, WA; Department of Medicine, University of Washington , Seattle, WA; Seattle, WA; Vaccine and Infectious Disease Division, Fred Hutchinson Cancer Center ; Seattle, WA; Seattle, WA; Vaccine and Infectious Disease Division, Fred Hutchinson Cancer Center ; Seattle, WA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388463633</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Efficacy of Messenger RNA–1273 Against Severe Acute Respiratory Syndrome Coronavirus 2 Acquisition in Young Adults From March to December 2021</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad511</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38023544</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad511</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388518244</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Temporal Changes in Vaccine-Specific Willingness Across Race/Ethnicity Following Serious Adverse Event Reports</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>American Journal of Public Health</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>American Public Health Association</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.2105/ajph.2023.307484</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37944076</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.2105/ajph.2023.307484</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Elizabeth Connick_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Elizabeth Connick_2023.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
